--- a/amine.xlsx
+++ b/amine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
   <si>
     <t>STATE</t>
   </si>
@@ -1938,7 +1938,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2082,15 +2082,15 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>109</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>109</v>
@@ -2106,23 +2106,23 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>109</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>109</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>109</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>109</v>
@@ -2154,9 +2154,49 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>109</v>
       </c>
     </row>

--- a/amine.xlsx
+++ b/amine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="112">
   <si>
     <t>STATE</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>S01E22</t>
-  </si>
-  <si>
-    <t>LAST</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1925,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2106,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2">
